--- a/medicine/Mort/Cimetière_Saint-Charles/Cimetière_Saint-Charles.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Charles/Cimetière_Saint-Charles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Charles</t>
+          <t>Cimetière_Saint-Charles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Charles est le plus grand cimetière de Québec. Il est situé à la rencontre des quartiers Saint-Sauveur, Duberger–Les Saules et Vanier, sur les bords de la rivière Saint-Charles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Charles</t>
+          <t>Cimetière_Saint-Charles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain est acheté par la fabrique de la paroisse Saint-Roch le 16 juin 1854. La bénédiction du cimetière est effectuée le 3 juin 1855. En 1858, les corps enterrés dans trois petits cimetières de Saint-Roch y sont transférés. Le 10 juin 1867, le terrain est cédé aux Oblats de Marie-Immaculée. Le 21 décembre 1912, le gouvernement incorpore la Compagnie du Cimetière Saint-Charles. Le 17 septembre 1967, la partie ouest du cimetière est inaugurée. Le mausolée-columbarium et le crématorium ouvrent le 19 septembre 1983.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Charles</t>
+          <t>Cimetière_Saint-Charles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Politiciens
+          <t>Politiciens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Simon-Napoléon Parent
 Pierre Bertrand
 Valmont Martin
@@ -555,19 +575,124 @@
 Lucien-Hubert Borne
 Oscar Auger
 Édouard Bouffard
-Hommes d'affaires
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hommes d'affaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 William Venner
 Frédéric Canac-Marquis
 Louis Canac-Marquis
 Jean-Baptiste Laliberté
 Zéphirin Paquet
-Artistes
-Johnny Farago
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Artistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Johnny Farago
 Charles Baillairgé
 Roger Lemelin
-Jules-Ernest Livernois
-Autres
-Charles-Jacques Frémont
+Jules-Ernest Livernois</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Charles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Charles-Jacques Frémont
 Nazaire Levasseur
 Irma Levasseur</t>
         </is>
